--- a/testData/Hana_T713.xlsx
+++ b/testData/Hana_T713.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7C503B-AAA1-45AD-9706-8CC17693A921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6345DD-7CF9-432C-8C7F-F2813DA4CD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,13 +104,13 @@
     <t>Thompson</t>
   </si>
   <si>
-    <t>102 E Columbia St, Farmington, MO 63640</t>
-  </si>
-  <si>
     <t>102 E Columbia St</t>
   </si>
   <si>
     <t>1249 Weber Loop</t>
+  </si>
+  <si>
+    <t>102 East Columbia Street, Farmington</t>
   </si>
 </sst>
 </file>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,7 +496,7 @@
     <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
@@ -574,13 +574,13 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>22</v>
